--- a/experiment/quadratic/ex9.2.5/Experimentos_Generador/ex9.2.5(Quadratic)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.5/Experimentos_Generador/ex9.2.5(Quadratic)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,58 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-14 + x + 1.824543188656788y</t>
-  </si>
-  <si>
-    <t>-5.721495002950681</t>
+    <t>-32.425 + x + 6.833333333333332y</t>
+  </si>
+  <si>
+    <t>18.424999999999994</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.5416861885182938</t>
-  </si>
-  <si>
-    <t>0.4348784773787313</t>
-  </si>
-  <si>
-    <t>0.5407942256029394</t>
-  </si>
-  <si>
-    <t>-2 + x - 1.4072004116262469y</t>
-  </si>
-  <si>
-    <t>-5.458134336622896</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>-1.5100000000000007 + x - 0.7999999999999998y</t>
+  </si>
+  <si>
+    <t>-0.4899999999999993</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9614613706904978</t>
-  </si>
-  <si>
-    <t>0.9749545169750038</t>
-  </si>
-  <si>
-    <t>0.8807702865468326</t>
-  </si>
-  <si>
-    <t>-1 - 2x + 3.27802932945798y</t>
-  </si>
-  <si>
-    <t>7.600016282946773</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>-6.775000000000001 - 2x + 1.1666666666666665y</t>
+  </si>
+  <si>
+    <t>-5.775000000000001</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.8934192024608484</t>
-  </si>
-  <si>
-    <t>0.8371628571399724</t>
-  </si>
-  <si>
-    <t>0.9716072185898903</t>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>0.7000000000000001</t>
   </si>
   <si>
     <t>x</t>
@@ -126,25 +126,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.6523588658718489</t>
-  </si>
-  <si>
-    <t>3.631674038944279</t>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>4.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.172636563891718</t>
+    <t>1.1230000000000004</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.959774988182512</t>
-  </si>
-  <si>
-    <t>-6.021890231690687</t>
+    <t>2.0999999999999996</t>
+  </si>
+  <si>
+    <t>-52.93666666666666</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -741,7 +741,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.29639979418687656</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
   </sheetData>
